--- a/data/trans_orig/P78C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD6A890-161F-4D58-A4AB-E592A1E27BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3959BA8-43EB-4131-AD82-FA3D7FDF76F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{417683D3-E991-48E2-9023-7F8F8EB4DBAD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F57FBE60-C08C-46B6-B7D6-FFB0F11805BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>32,25%</t>
+    <t>31,98%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,55%</t>
+    <t>56,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,61 +98,61 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -176,58 +176,58 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8B8FB-A292-4587-A020-47F3E359077A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C753A0-1F3E-4817-BCF0-633BA3E11B66}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1118</v>
+        <v>940</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1762</v>
+        <v>1491</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1354</v>
+        <v>1171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1354</v>
+        <v>1171</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1118</v>
+        <v>940</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1998</v>
+        <v>1721</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>3116</v>
+        <v>2662</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>21448</v>
+        <v>19156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>17673</v>
+        <v>15379</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -948,7 +948,7 @@
         <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>39121</v>
+        <v>34535</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>3677</v>
+        <v>3409</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1544</v>
+        <v>1470</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>5221</v>
+        <v>4879</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1020,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>25125</v>
+        <v>22565</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>19217</v>
+        <v>16849</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1050,7 +1050,7 @@
         <v>47</v>
       </c>
       <c r="N9" s="7">
-        <v>44342</v>
+        <v>39414</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>8310</v>
+        <v>7282</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5119</v>
+        <v>4343</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1103,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>13430</v>
+        <v>11625</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1175,7 +1175,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>8310</v>
+        <v>7282</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>5119</v>
+        <v>4343</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>13430</v>
+        <v>11625</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1228,7 +1228,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>30876</v>
+        <v>27378</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -1243,7 +1243,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>23437</v>
+        <v>20272</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1258,7 +1258,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>54313</v>
+        <v>47651</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3677</v>
+        <v>3409</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2898</v>
+        <v>2641</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>58</v>
@@ -1309,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>6575</v>
+        <v>6050</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>61</v>
@@ -1330,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>34553</v>
+        <v>30787</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1345,7 +1345,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="7">
-        <v>26335</v>
+        <v>22913</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1360,7 +1360,7 @@
         <v>64</v>
       </c>
       <c r="N15" s="7">
-        <v>60888</v>
+        <v>53701</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
